--- a/HistorialCompras.xlsx
+++ b/HistorialCompras.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G67"/>
+  <dimension ref="A1:G70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2493,7 +2493,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="3" t="n">
+      <c r="A67" s="2" t="n">
         <v>45072</v>
       </c>
       <c r="B67" t="inlineStr">
@@ -2518,6 +2518,99 @@
         <v>156</v>
       </c>
       <c r="G67" t="inlineStr">
+        <is>
+          <t>Tarjeta</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45072</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>21:29:54</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Jose Miguel Arce Lujano</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Frijol</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>1</v>
+      </c>
+      <c r="F68" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Tarjeta</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45072</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>21:30:19</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Jose Miguel Arce Lujano</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Aguacate</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>2</v>
+      </c>
+      <c r="F69" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Tarjeta</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="3" t="n">
+        <v>45072</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>21:31:47</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Mariana Alcantara Fuentes</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Aceite</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>10</v>
+      </c>
+      <c r="F70" t="n">
+        <v>379</v>
+      </c>
+      <c r="G70" t="inlineStr">
         <is>
           <t>Tarjeta</t>
         </is>
